--- a/data/modelo_holt_ejercicio_para_resolver.xlsx
+++ b/data/modelo_holt_ejercicio_para_resolver.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docencia\MUSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\MUSE_JCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D4ADA8-8332-40AD-94CA-5689295619E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A0F4A3-E428-4812-B0EE-1E2AA60388C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CC513FC-EFB3-4569-9109-644D88F7E97D}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -272,16 +272,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,8 +317,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="113236" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -360,6 +360,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -392,7 +393,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -455,10 +456,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
